--- a/Localization/PopGuide_Translations_V12.xlsx
+++ b/Localization/PopGuide_Translations_V12.xlsx
@@ -6942,7 +6942,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">个人数据您有权了解</t>
+      <t xml:space="preserve">您有权了解</t>
     </r>
     <r>
       <rPr>
@@ -8256,9 +8256,9 @@
   <dimension ref="A1:AA158"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L141" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A141" activeCellId="0" sqref="A141"/>
       <selection pane="bottomRight" activeCell="M156" activeCellId="0" sqref="M156"/>
     </sheetView>
